--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44CA7A66-DB85-459B-8504-9B4B332B231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079119C6-EC78-4CFD-B24B-62BFC1A3A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -33,9 +33,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Asha</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Meena</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +108,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +155,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +487,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3700B4-ADD8-4A71-A0F6-86B8D0451D23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <f>AVERAGE(B2:B6)</f>
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <f>MAX(B2:B6)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <f>MIN(B2:B6)</f>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079119C6-EC78-4CFD-B24B-62BFC1A3A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18E93D-AEA8-48AA-99F3-4CC78B0193C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +94,42 @@
   </si>
   <si>
     <t>Lowest</t>
+  </si>
+  <si>
+    <t>perform:</t>
+  </si>
+  <si>
+    <t>1. Sorting:</t>
+  </si>
+  <si>
+    <t>Sort Marks from highest to lowest</t>
+  </si>
+  <si>
+    <t>Sort Names alphabetically</t>
+  </si>
+  <si>
+    <t>2. Filtering:</t>
+  </si>
+  <si>
+    <t>Filter students only from Pune</t>
+  </si>
+  <si>
+    <t>Filter students with Grade A</t>
+  </si>
+  <si>
+    <t>Filter students with Marks &gt; 70</t>
+  </si>
+  <si>
+    <t>3. Conditional Formatting:</t>
+  </si>
+  <si>
+    <t>Highlight:</t>
+  </si>
+  <si>
+    <t>Marks above 80 → green</t>
+  </si>
+  <si>
+    <t>Marks below 60 → red</t>
   </si>
 </sst>
 </file>
@@ -98,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +157,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,9 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -173,11 +219,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3700B4-ADD8-4A71-A0F6-86B8D0451D23}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +584,7 @@
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -527,22 +611,24 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -556,27 +642,34 @@
         <v>6</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="U5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -584,8 +677,26 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J6" s="7"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+      <c r="U7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -593,8 +704,14 @@
         <f>AVERAGE(B2:B6)</f>
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+      <c r="U9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -602,8 +719,12 @@
         <f>SUM(B2:B6)</f>
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -611,8 +732,14 @@
         <f>MAX(B2:B6)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J11" s="7"/>
+      <c r="U11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -620,9 +747,139 @@
         <f>MIN(B2:B6)</f>
         <v>55</v>
       </c>
+      <c r="J12" s="7"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J13" s="7"/>
+      <c r="U13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J15" s="7"/>
+      <c r="U15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J16" s="7"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J17" s="7"/>
+      <c r="U17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J18" s="7"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J19" s="7"/>
+      <c r="U19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J20" s="7"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J21" s="7"/>
+      <c r="U21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J22" s="7"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J23" s="7"/>
+      <c r="U23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J24" s="7"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J25" s="7"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J26" s="7"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="U27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="U28" s="9"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="U29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18E93D-AEA8-48AA-99F3-4CC78B0193C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7EB32-2DEB-42B3-97DC-5EE01628AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -130,15 +130,24 @@
   </si>
   <si>
     <t>Marks below 60 → red</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>Parth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,9 +210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -230,7 +238,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -248,16 +256,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -573,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3700B4-ADD8-4A71-A0F6-86B8D0451D23}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,302 +580,388 @@
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="E2" t="str">
+        <f>IF(B2&gt;=60,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(B2&gt;=85, "Excellent", IF(B2&gt;=70, "Good", "Needs Improvement"))</f>
+        <v>Good</v>
+      </c>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E8" si="0">IF(B3&gt;=60,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="1">IF(B3&gt;=85, "Excellent", IF(B3&gt;=70, "Good", "Needs Improvement"))</f>
+        <v>Needs Improvement</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="J4" s="7"/>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Excellent</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="U5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>65</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Needs Improvement</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J7" s="7"/>
-      <c r="U7" s="8" t="s">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Excellent</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="U7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J8" s="7"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Needs Improvement</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="J9" s="6"/>
+      <c r="U9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J10" s="6"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J11" s="6"/>
+      <c r="U11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J12" s="6"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J13" s="6"/>
+      <c r="U13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <f>AVERAGE(B2:B6)</f>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="U9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B14" s="3">
+        <f>AVERAGE(B2:B8)</f>
+        <v>71.714285714285708</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
-        <f>SUM(B2:B6)</f>
-        <v>358</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B15" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>502</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="U15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
-        <f>MAX(B2:B6)</f>
+      <c r="B16" s="3">
+        <f>MAX(B2:B8)</f>
         <v>90</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="U11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="J16" s="6"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
-        <f>MIN(B2:B6)</f>
+      <c r="B17" s="3">
+        <f>MIN(B2:B8)</f>
         <v>55</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J13" s="7"/>
-      <c r="U13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J14" s="7"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J15" s="7"/>
-      <c r="U15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J16" s="7"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J17" s="7"/>
-      <c r="U17" s="8" t="s">
+      <c r="J17" s="6"/>
+      <c r="U17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J18" s="7"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J19" s="7"/>
-      <c r="U19" s="8" t="s">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J18" s="6"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
+      <c r="U19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J20" s="7"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J21" s="7"/>
-      <c r="U21" s="8" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J20" s="6"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J21" s="6"/>
+      <c r="U21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J22" s="7"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J23" s="7"/>
-      <c r="U23" s="8" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J23" s="6"/>
+      <c r="U23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J25" s="7"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J26" s="7"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="U27" s="9" t="s">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J24" s="6"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J25" s="6"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J26" s="6"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="U28" s="9"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-    </row>
-    <row r="29" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="U29" s="9" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U28" s="8"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="A2:A6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7EB32-2DEB-42B3-97DC-5EE01628AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD0B34-4C88-4544-BCAF-0846F38F55F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Pune</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Rohan</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Meena</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
   </si>
   <si>
     <t>Delhi</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Priya</t>
@@ -572,7 +563,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -613,8 +604,9 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="str">
+        <f>IF(B2&gt;=85, "A+", IF(B2&gt;=75, "A", IF(B2&gt;=65, "B", "C")))</f>
+        <v>A</v>
       </c>
       <c r="E2" t="str">
         <f>IF(B2&gt;=60,"Pass","Fail")</f>
@@ -628,30 +620,31 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D8" si="0">IF(B3&gt;=85, "A+", IF(B3&gt;=75, "A", IF(B3&gt;=65, "B", "C")))</f>
+        <v>C</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E8" si="0">IF(B3&gt;=60,"Pass","Fail")</f>
+        <f t="shared" ref="E3:E8" si="1">IF(B3&gt;=60,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F8" si="1">IF(B3&gt;=85, "Excellent", IF(B3&gt;=70, "Good", "Needs Improvement"))</f>
+        <f t="shared" ref="F3:F8" si="2">IF(B3&gt;=85, "Excellent", IF(B3&gt;=70, "Good", "Needs Improvement"))</f>
         <v>Needs Improvement</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>90</v>
@@ -659,66 +652,69 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Good</v>
       </c>
       <c r="J5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Needs Improvement</v>
       </c>
       <c r="J6" s="6"/>
@@ -728,51 +724,53 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
       <c r="J7" s="6"/>
       <c r="U7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Needs Improvement</v>
       </c>
       <c r="J8" s="6"/>
@@ -783,7 +781,7 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" s="6"/>
       <c r="U9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -797,7 +795,7 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J11" s="6"/>
       <c r="U11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -811,14 +809,14 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="6"/>
       <c r="U13" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B8)</f>
@@ -831,7 +829,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <f>SUM(B2:B8)</f>
@@ -839,14 +837,14 @@
       </c>
       <c r="J15" s="6"/>
       <c r="U15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <f>MAX(B2:B8)</f>
@@ -859,7 +857,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <f>MIN(B2:B8)</f>
@@ -867,7 +865,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="U17" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -881,7 +879,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J19" s="6"/>
       <c r="U19" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -895,7 +893,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J21" s="6"/>
       <c r="U21" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -909,7 +907,7 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J23" s="6"/>
       <c r="U23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -934,7 +932,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U27" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -946,7 +944,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U29" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>

--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD0B34-4C88-4544-BCAF-0846F38F55F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B71FA-6148-4B14-B8BC-7E21CDF0EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Parth</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Average Marks</t>
   </si>
 </sst>
 </file>
@@ -201,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,6 +279,1835 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grade Distribution</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA89-4B71-8A12-7A879ED73A99}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-EA89-4B71-8A12-7A879ED73A99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA89-4B71-8A12-7A879ED73A99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>City-wise Average Marks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$7:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Pune</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mumbai</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.333333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9E4-4D89-BD12-5C9C35BB591A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1211142335"/>
+        <c:axId val="1211341167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1211142335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211341167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211341167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211142335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D893E3-AF65-5AFF-E1D5-147E8AAD6236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D49BCA-FCF0-795E-FA01-D0C52CDB435F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,7 +2410,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,9 +2419,10 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,6 +2440,12 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -615,6 +2469,14 @@
       <c r="F2" t="str">
         <f>IF(B2&gt;=85, "Excellent", IF(B2&gt;=70, "Good", "Needs Improvement"))</f>
         <v>Good</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3">
+        <f>COUNTIF(D:D, "A")</f>
+        <v>1</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -640,6 +2502,14 @@
         <f t="shared" ref="F3:F8" si="2">IF(B3&gt;=85, "Excellent", IF(B3&gt;=70, "Good", "Needs Improvement"))</f>
         <v>Needs Improvement</v>
       </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3">
+        <f>COUNTIF(D:D,"B")</f>
+        <v>2</v>
+      </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -663,6 +2533,14 @@
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3">
+        <f>COUNTIF(D:D,"C")</f>
+        <v>2</v>
       </c>
       <c r="J4" s="6"/>
     </row>
@@ -716,6 +2594,12 @@
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>Needs Improvement</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J6" s="6"/>
       <c r="U6" s="7"/>
@@ -744,6 +2628,13 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGEIF(C:C, "Pune", B:B)</f>
+        <v>84</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="U7" s="7" t="s">
         <v>17</v>
@@ -773,12 +2664,26 @@
         <f t="shared" si="2"/>
         <v>Needs Improvement</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGEIF(C:C, "Mumbai", B:B)</f>
+        <v>67.5</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="U8" s="7"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGEIF(C:C, "Delhi", B:B)</f>
+        <v>66.333333333333329</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="U9" s="7" t="s">
         <v>18</v>
@@ -963,5 +2868,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B71FA-6148-4B14-B8BC-7E21CDF0EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD2D28-923B-4E13-BC4C-0261FB01B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,6 +386,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4988-4A61-93DE-EDE6FF093241}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -424,6 +426,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4988-4A61-93DE-EDE6FF093241}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2410,7 +2417,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2503,7 +2510,7 @@
         <v>Needs Improvement</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="3">

--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD2D28-923B-4E13-BC4C-0261FB01B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E50644-05FF-491A-A7B2-1EE9B37B1F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Number of grade A students</t>
+  </si>
+  <si>
+    <t>Number of students from Pune</t>
+  </si>
+  <si>
+    <t>Average marks of Pune students</t>
+  </si>
+  <si>
+    <t>Average marks of grade A students</t>
   </si>
 </sst>
 </file>
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,6 +252,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +535,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2417,12 +2431,12 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -2466,8 +2480,8 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF(B2&gt;=85, "A+", IF(B2&gt;=75, "A", IF(B2&gt;=65, "B", "C")))</f>
-        <v>A</v>
+        <f t="shared" ref="D2:D3" si="0">IF(B2&gt;=85, "A", IF(B2&gt;=75, "B", IF(B2&gt;=65, "C", "D")))</f>
+        <v>B</v>
       </c>
       <c r="E2" t="str">
         <f>IF(B2&gt;=60,"Pass","Fail")</f>
@@ -2483,7 +2497,7 @@
       </c>
       <c r="I2" s="3">
         <f>COUNTIF(D:D, "A")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -2498,8 +2512,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D8" si="0">IF(B3&gt;=85, "A+", IF(B3&gt;=75, "A", IF(B3&gt;=65, "B", "C")))</f>
-        <v>C</v>
+        <f t="shared" si="0"/>
+        <v>D</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E8" si="1">IF(B3&gt;=60,"Pass","Fail")</f>
@@ -2515,7 +2529,7 @@
       </c>
       <c r="I3" s="3">
         <f>COUNTIF(D:D,"B")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -2530,8 +2544,8 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>A+</v>
+        <f>IF(B4&gt;=85, "A", IF(B4&gt;=75, "B", IF(B4&gt;=65, "C", "D")))</f>
+        <v>A</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -2562,8 +2576,8 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
+        <f t="shared" ref="D5:D8" si="3">IF(B5&gt;=85, "A", IF(B5&gt;=75, "B", IF(B5&gt;=65, "C", "D")))</f>
+        <v>C</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -2591,8 +2605,8 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -2624,8 +2638,8 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>A+</v>
+        <f t="shared" si="3"/>
+        <v>A</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -2660,8 +2674,8 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
+        <f t="shared" si="3"/>
+        <v>D</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -2783,12 +2797,26 @@
       <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(D2:D8, "A")</f>
+        <v>2</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="U18" s="7"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(C2:C8, "Pune")</f>
+        <v>2</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="U19" s="7" t="s">
         <v>23</v>
@@ -2797,12 +2825,26 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGEIF(C2:C8, "Pune", B2:B8)</f>
+        <v>84</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="U20" s="7"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGEIF(D2:D8, "A", B2:B8)</f>
+        <v>87.5</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="U21" s="7" t="s">
         <v>24</v>

--- a/Month1_Excel_Stats/day3_student_data.xlsx
+++ b/Month1_Excel_Stats/day3_student_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAMESH\Desktop\Medha\data-analytics-roadmap\Month1_Excel_Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E50644-05FF-491A-A7B2-1EE9B37B1F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BF178-B04B-42E5-9CE8-9C538D077598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{501C390A-B10D-404C-955E-E2A7499A10B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student performance data" sheetId="1" r:id="rId1"/>
+    <sheet name="Scholarship_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Student performance data'!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +161,28 @@
   </si>
   <si>
     <t>Average marks of grade A students</t>
+  </si>
+  <si>
+    <t>Scholarship Amount</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Scholarsip</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>Rupesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +211,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +246,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,6 +297,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +437,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>'Student performance data'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +573,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:f>'Student performance data'!$H$2:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -530,7 +590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>'Student performance data'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -727,7 +787,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>'Student performance data'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -748,7 +808,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$7:$H$9</c:f>
+              <c:f>'Student performance data'!$H$7:$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -765,7 +825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$9</c:f>
+              <c:f>'Student performance data'!$I$7:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2430,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3700B4-ADD8-4A71-A0F6-86B8D0451D23}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -2919,4 +2979,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C776DD6-1F75-4B87-9A8C-4F642DE7CDD6}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Scholarship_Data!A:B,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(A2,Scholarship_Data!A:A,Scholarship_Data!B:B,"Not Eligible")</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>7000</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Scholarship_Data!A:B,2,FALSE)</f>
+        <v>7000</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.XLOOKUP(A3,Scholarship_Data!A:A,Scholarship_Data!B:B,"Not Eligible")</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="12">
+        <v>6000</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Scholarship_Data!A:B,2,FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP(A4,Scholarship_Data!A:A,Scholarship_Data!B:B,"Not Eligible")</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Scholarship_Data!A:B,2,FALSE)</f>
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.XLOOKUP(A5,Scholarship_Data!A:A,Scholarship_Data!B:B,"Not Eligible")</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5432.9</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Scholarship_Data!A:B,2,FALSE)</f>
+        <v>5432.9</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.XLOOKUP(A6,Scholarship_Data!A:A,Scholarship_Data!B:B,"Not Eligible")</f>
+        <v>5432.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>